--- a/report_zone/Report_zone8.xlsx
+++ b/report_zone/Report_zone8.xlsx
@@ -2409,7 +2409,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -16077,7 +16077,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -17881,7 +17881,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -18793,7 +18793,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -19701,7 +19701,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -23341,7 +23341,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -24249,7 +24249,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -25157,7 +25157,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -26427,7 +26427,7 @@
       </c>
       <c r="BT29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BU29" t="inlineStr">
@@ -26454,16 +26454,8 @@
         </is>
       </c>
       <c r="CB29" t="inlineStr"/>
-      <c r="CC29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CD29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
       <c r="CE29" t="inlineStr">
         <is>
           <t>true</t>
@@ -26515,12 +26507,12 @@
         </is>
       </c>
       <c r="CS29" t="inlineStr"/>
-      <c r="CT29" t="inlineStr"/>
-      <c r="CU29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="CT29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="CU29" t="inlineStr"/>
       <c r="CV29" t="inlineStr"/>
       <c r="CW29" t="inlineStr"/>
       <c r="CX29" t="inlineStr"/>
@@ -26532,7 +26524,7 @@
       <c r="CZ29" t="inlineStr"/>
       <c r="DA29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DB29" t="inlineStr">
@@ -26757,32 +26749,32 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD29" t="inlineStr"/>
       <c r="FE29" t="inlineStr"/>
       <c r="FF29" t="inlineStr"/>
-      <c r="FG29" t="inlineStr"/>
+      <c r="FG29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL29" t="inlineStr">
@@ -26851,13 +26843,13 @@
         </is>
       </c>
       <c r="FY29" t="inlineStr"/>
-      <c r="FZ29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FZ29" t="inlineStr"/>
       <c r="GA29" t="inlineStr"/>
-      <c r="GB29" t="inlineStr"/>
+      <c r="GB29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GC29" t="inlineStr">
         <is>
           <t>true</t>
@@ -26885,7 +26877,7 @@
       </c>
       <c r="GH29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="GI29" t="inlineStr"/>
@@ -26960,12 +26952,12 @@
       </c>
       <c r="HA29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HB29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="HC29" t="inlineStr">
@@ -26985,7 +26977,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -27905,7 +27897,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -28813,7 +28805,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29713,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -30629,7 +30621,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -31549,7 +31541,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -32457,7 +32449,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -33365,7 +33357,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -34273,7 +34265,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -35181,7 +35173,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -35595,7 +35587,7 @@
       </c>
       <c r="CN39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CO39" t="inlineStr">
@@ -35839,7 +35831,7 @@
       </c>
       <c r="EV39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EW39" t="inlineStr"/>
@@ -36019,7 +36011,7 @@
       </c>
       <c r="GR39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS39" t="inlineStr">
@@ -36034,7 +36026,7 @@
       </c>
       <c r="GU39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV39" t="inlineStr">
@@ -36059,7 +36051,7 @@
       </c>
       <c r="GZ39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HA39" t="inlineStr">
@@ -36089,7 +36081,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -36997,7 +36989,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -37905,7 +37897,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -38817,7 +38809,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -39725,7 +39717,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -40633,7 +40625,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -41545,7 +41537,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -42461,7 +42453,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -43369,7 +43361,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -44277,7 +44269,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -45185,7 +45177,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -46093,7 +46085,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -47001,7 +46993,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -47917,7 +47909,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -48829,7 +48821,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -49737,7 +49729,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -50510,14 +50502,14 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FY55" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FY55" t="inlineStr"/>
       <c r="FZ55" t="inlineStr"/>
       <c r="GA55" t="inlineStr"/>
-      <c r="GB55" t="inlineStr"/>
+      <c r="GB55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GC55" t="inlineStr">
         <is>
           <t>true</t>
@@ -50645,7 +50637,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -51553,7 +51545,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -52461,7 +52453,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -53369,7 +53361,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -54277,7 +54269,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -55185,7 +55177,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -56093,7 +56085,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -57001,7 +56993,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -57909,7 +57901,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -58817,7 +58809,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -59725,7 +59717,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -60633,7 +60625,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -61541,7 +61533,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -62449,7 +62441,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -63357,7 +63349,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -64265,7 +64257,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -65181,7 +65173,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -66089,7 +66081,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -66997,7 +66989,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -67917,7 +67909,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -68825,7 +68817,7 @@
       </c>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -69737,7 +69729,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -70645,7 +70637,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -71557,7 +71549,7 @@
       </c>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -72473,7 +72465,7 @@
       </c>
       <c r="HF79" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -72685,7 +72677,7 @@
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AQ80" t="inlineStr">
@@ -72810,7 +72802,7 @@
       </c>
       <c r="BO80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BP80" t="inlineStr">
@@ -73126,12 +73118,12 @@
       <c r="ET80" t="inlineStr"/>
       <c r="EU80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EV80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EW80" t="inlineStr"/>
@@ -73381,7 +73373,7 @@
       </c>
       <c r="HF80" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -74285,7 +74277,7 @@
       </c>
       <c r="HF81" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -75193,7 +75185,7 @@
       </c>
       <c r="HF82" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -76109,7 +76101,7 @@
       </c>
       <c r="HF83" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -77017,7 +77009,7 @@
       </c>
       <c r="HF84" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -77661,12 +77653,12 @@
           <t>false</t>
         </is>
       </c>
-      <c r="ER85" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="ES85" t="inlineStr"/>
+      <c r="ER85" t="inlineStr"/>
+      <c r="ES85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="ET85" t="inlineStr"/>
       <c r="EU85" t="inlineStr">
         <is>
@@ -77712,7 +77704,7 @@
       </c>
       <c r="FI85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ85" t="inlineStr">
@@ -77791,12 +77783,12 @@
         </is>
       </c>
       <c r="FY85" t="inlineStr"/>
-      <c r="FZ85" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="GA85" t="inlineStr"/>
+      <c r="FZ85" t="inlineStr"/>
+      <c r="GA85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GB85" t="inlineStr"/>
       <c r="GC85" t="inlineStr">
         <is>
@@ -77925,7 +77917,7 @@
       </c>
       <c r="HF85" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -78841,7 +78833,7 @@
       </c>
       <c r="HF86" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -79749,7 +79741,7 @@
       </c>
       <c r="HF87" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -80657,7 +80649,7 @@
       </c>
       <c r="HF88" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>
@@ -81565,7 +81557,7 @@
       </c>
       <c r="HF89" t="inlineStr">
         <is>
-          <t>2025-05-19 05:50:05</t>
+          <t>2025-05-19 19:50:10</t>
         </is>
       </c>
     </row>

--- a/report_zone/Report_zone8.xlsx
+++ b/report_zone/Report_zone8.xlsx
@@ -2182,26 +2182,22 @@
         </is>
       </c>
       <c r="FD2" t="inlineStr"/>
-      <c r="FE2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE2" t="inlineStr"/>
       <c r="FF2" t="inlineStr"/>
       <c r="FG2" t="inlineStr"/>
       <c r="FH2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI2" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FK2" t="inlineStr">
@@ -2409,7 +2405,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2697,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
@@ -2835,7 +2831,7 @@
       <c r="CM3" t="inlineStr"/>
       <c r="CN3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="CO3" t="inlineStr">
@@ -2876,7 +2872,7 @@
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DB3" t="inlineStr">
@@ -2961,27 +2957,27 @@
       </c>
       <c r="DR3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DS3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DT3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DU3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DV3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DW3" t="inlineStr">
@@ -3101,22 +3097,22 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD3" t="inlineStr"/>
       <c r="FE3" t="inlineStr"/>
       <c r="FF3" t="inlineStr"/>
-      <c r="FG3" t="inlineStr"/>
+      <c r="FG3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI3" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ3" t="inlineStr">
@@ -3126,7 +3122,7 @@
       </c>
       <c r="FK3" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL3" t="inlineStr">
@@ -3194,13 +3190,13 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FY3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FY3" t="inlineStr"/>
       <c r="FZ3" t="inlineStr"/>
-      <c r="GA3" t="inlineStr"/>
+      <c r="GA3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GB3" t="inlineStr"/>
       <c r="GC3" t="inlineStr">
         <is>
@@ -3238,20 +3234,20 @@
           <t>false</t>
         </is>
       </c>
-      <c r="GK3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="GK3" t="inlineStr"/>
       <c r="GL3" t="inlineStr"/>
-      <c r="GM3" t="inlineStr"/>
-      <c r="GN3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="GM3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="GN3" t="inlineStr"/>
       <c r="GO3" t="inlineStr"/>
-      <c r="GP3" t="inlineStr"/>
+      <c r="GP3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GQ3" t="inlineStr">
         <is>
           <t>true</t>
@@ -3329,7 +3325,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -3704,12 +3700,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr"/>
-      <c r="BX4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="BW4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BX4" t="inlineStr"/>
       <c r="BY4" t="inlineStr"/>
       <c r="BZ4" t="inlineStr"/>
       <c r="CA4" t="inlineStr">
@@ -3743,17 +3739,17 @@
       </c>
       <c r="CN4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CO4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CP4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ4" t="inlineStr">
@@ -3794,12 +3790,12 @@
       </c>
       <c r="DC4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DD4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DE4" t="inlineStr">
@@ -3809,7 +3805,7 @@
       </c>
       <c r="DF4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DG4" t="inlineStr">
@@ -3859,12 +3855,12 @@
       </c>
       <c r="DP4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DQ4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DR4" t="inlineStr">
@@ -3874,7 +3870,7 @@
       </c>
       <c r="DS4" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DT4" t="inlineStr">
@@ -3889,7 +3885,7 @@
       </c>
       <c r="DV4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DW4" t="inlineStr">
@@ -4019,17 +4015,17 @@
       </c>
       <c r="FH4" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI4" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ4" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FK4" t="inlineStr">
@@ -4146,20 +4142,20 @@
           <t>false</t>
         </is>
       </c>
-      <c r="GK4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="GK4" t="inlineStr"/>
       <c r="GL4" t="inlineStr"/>
-      <c r="GM4" t="inlineStr"/>
+      <c r="GM4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GN4" t="inlineStr"/>
-      <c r="GO4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="GP4" t="inlineStr"/>
+      <c r="GO4" t="inlineStr"/>
+      <c r="GP4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GQ4" t="inlineStr">
         <is>
           <t>true</t>
@@ -4237,7 +4233,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -4917,22 +4913,22 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FD5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD5" t="inlineStr"/>
       <c r="FE5" t="inlineStr"/>
-      <c r="FF5" t="inlineStr"/>
+      <c r="FF5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FG5" t="inlineStr"/>
       <c r="FH5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ5" t="inlineStr">
@@ -5145,7 +5141,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5333,7 @@
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -5497,7 +5493,7 @@
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
@@ -5507,7 +5503,7 @@
       </c>
       <c r="BT6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BU6" t="inlineStr">
@@ -5534,21 +5530,9 @@
         </is>
       </c>
       <c r="CB6" t="inlineStr"/>
-      <c r="CC6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CD6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CE6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="inlineStr">
         <is>
           <t>true</t>
@@ -5591,7 +5575,7 @@
       </c>
       <c r="CR6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CS6" t="inlineStr"/>
@@ -5602,14 +5586,14 @@
       </c>
       <c r="CU6" t="inlineStr"/>
       <c r="CV6" t="inlineStr"/>
-      <c r="CW6" t="inlineStr"/>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CX6" t="inlineStr"/>
       <c r="CY6" t="inlineStr"/>
-      <c r="CZ6" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="CZ6" t="inlineStr"/>
       <c r="DA6" t="inlineStr">
         <is>
           <t>true</t>
@@ -5642,7 +5626,7 @@
       </c>
       <c r="DG6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DH6" t="inlineStr">
@@ -5707,7 +5691,7 @@
       </c>
       <c r="DT6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DU6" t="inlineStr">
@@ -5725,14 +5709,14 @@
           <t>true</t>
         </is>
       </c>
-      <c r="DX6" t="inlineStr"/>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="DY6" t="inlineStr"/>
       <c r="DZ6" t="inlineStr"/>
-      <c r="EA6" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="EA6" t="inlineStr"/>
       <c r="EB6" t="inlineStr">
         <is>
           <t>true</t>
@@ -5788,7 +5772,7 @@
       </c>
       <c r="EO6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="EP6" t="inlineStr">
@@ -5798,24 +5782,24 @@
       </c>
       <c r="EQ6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="ER6" t="inlineStr"/>
-      <c r="ES6" t="inlineStr"/>
-      <c r="ET6" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="ES6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="ET6" t="inlineStr"/>
       <c r="EU6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EV6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EW6" t="inlineStr"/>
@@ -5839,15 +5823,15 @@
       </c>
       <c r="FD6" t="inlineStr"/>
       <c r="FE6" t="inlineStr"/>
-      <c r="FF6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FG6" t="inlineStr"/>
+      <c r="FF6" t="inlineStr"/>
+      <c r="FG6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI6" t="inlineStr">
@@ -6025,7 +6009,7 @@
       </c>
       <c r="GX6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GY6" t="inlineStr">
@@ -6065,7 +6049,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -6660,7 +6644,7 @@
       <c r="EF7" t="inlineStr"/>
       <c r="EG7" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EH7" t="inlineStr">
@@ -6759,7 +6743,7 @@
       </c>
       <c r="FH7" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI7" t="inlineStr">
@@ -6977,7 +6961,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -7654,20 +7638,20 @@
       </c>
       <c r="FC8" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FD8" t="inlineStr"/>
       <c r="FE8" t="inlineStr"/>
-      <c r="FF8" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FG8" t="inlineStr"/>
+      <c r="FF8" t="inlineStr"/>
+      <c r="FG8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH8" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI8" t="inlineStr">
@@ -7682,7 +7666,7 @@
       </c>
       <c r="FK8" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL8" t="inlineStr">
@@ -7732,7 +7716,7 @@
       </c>
       <c r="FU8" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FV8" t="inlineStr">
@@ -7885,7 +7869,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -8365,7 +8349,7 @@
       </c>
       <c r="DF9" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DG9" t="inlineStr">
@@ -8565,17 +8549,17 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FD9" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD9" t="inlineStr"/>
       <c r="FE9" t="inlineStr"/>
       <c r="FF9" t="inlineStr"/>
-      <c r="FG9" t="inlineStr"/>
+      <c r="FG9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH9" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>C273</t>
         </is>
       </c>
       <c r="FI9" t="inlineStr">
@@ -8793,7 +8777,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -9005,7 +8989,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -9419,7 +9403,7 @@
       </c>
       <c r="EN10" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EO10" t="inlineStr">
@@ -9475,15 +9459,15 @@
       </c>
       <c r="FD10" t="inlineStr"/>
       <c r="FE10" t="inlineStr"/>
-      <c r="FF10" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FG10" t="inlineStr"/>
+      <c r="FF10" t="inlineStr"/>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH10" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI10" t="inlineStr">
@@ -9566,12 +9550,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FY10" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FZ10" t="inlineStr"/>
+      <c r="FY10" t="inlineStr"/>
+      <c r="FZ10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GA10" t="inlineStr"/>
       <c r="GB10" t="inlineStr"/>
       <c r="GC10" t="inlineStr">
@@ -9701,7 +9685,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -10384,19 +10368,15 @@
       <c r="FD11" t="inlineStr"/>
       <c r="FE11" t="inlineStr"/>
       <c r="FF11" t="inlineStr"/>
-      <c r="FG11" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG11" t="inlineStr"/>
       <c r="FH11" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI11" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ11" t="inlineStr">
@@ -10609,7 +10589,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11194,7 @@
       </c>
       <c r="EI12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EJ12" t="inlineStr">
@@ -11290,25 +11270,21 @@
       </c>
       <c r="FC12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FD12" t="inlineStr"/>
       <c r="FE12" t="inlineStr"/>
       <c r="FF12" t="inlineStr"/>
-      <c r="FG12" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG12" t="inlineStr"/>
       <c r="FH12" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ12" t="inlineStr">
@@ -11416,7 +11392,7 @@
       </c>
       <c r="GG12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GH12" t="inlineStr">
@@ -11521,7 +11497,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -11643,184 +11619,184 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AY13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AU13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="AX13" t="inlineStr">
+      <c r="AZ13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AY13" t="inlineStr">
+      <c r="BA13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
+      <c r="BB13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BA13" t="inlineStr">
+      <c r="BC13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BB13" t="inlineStr">
+      <c r="BD13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BC13" t="inlineStr">
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
-      <c r="BE13" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="BG13" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
       <c r="BH13" t="inlineStr">
         <is>
           <t>true</t>
@@ -11828,7 +11804,7 @@
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
@@ -11858,7 +11834,7 @@
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
@@ -11936,12 +11912,12 @@
       </c>
       <c r="CO13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CP13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ13" t="inlineStr">
@@ -11972,12 +11948,12 @@
       <c r="CZ13" t="inlineStr"/>
       <c r="DA13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DB13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DC13" t="inlineStr">
@@ -12002,27 +11978,27 @@
       </c>
       <c r="DG13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DH13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DI13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DJ13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DK13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DL13" t="inlineStr">
@@ -12032,7 +12008,7 @@
       </c>
       <c r="DM13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DN13" t="inlineStr">
@@ -12062,7 +12038,7 @@
       </c>
       <c r="DS13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DT13" t="inlineStr">
@@ -12153,12 +12129,12 @@
       </c>
       <c r="EP13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EQ13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="ER13" t="inlineStr"/>
@@ -12180,12 +12156,12 @@
       </c>
       <c r="EW13" t="inlineStr"/>
       <c r="EX13" t="inlineStr"/>
-      <c r="EY13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="EZ13" t="inlineStr"/>
+      <c r="EY13" t="inlineStr"/>
+      <c r="EZ13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FA13" t="inlineStr"/>
       <c r="FB13" t="inlineStr">
         <is>
@@ -12197,17 +12173,13 @@
           <t>undefined</t>
         </is>
       </c>
-      <c r="FD13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD13" t="inlineStr"/>
       <c r="FE13" t="inlineStr"/>
       <c r="FF13" t="inlineStr"/>
       <c r="FG13" t="inlineStr"/>
       <c r="FH13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI13" t="inlineStr">
@@ -12277,7 +12249,7 @@
       </c>
       <c r="FV13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FW13" t="inlineStr">
@@ -12287,35 +12259,35 @@
       </c>
       <c r="FX13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FY13" t="inlineStr"/>
-      <c r="FZ13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="GA13" t="inlineStr"/>
+      <c r="FZ13" t="inlineStr"/>
+      <c r="GA13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GB13" t="inlineStr"/>
       <c r="GC13" t="inlineStr">
         <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="GD13" t="inlineStr">
+        <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="GD13" t="inlineStr">
+      <c r="GE13" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="GE13" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
       <c r="GF13" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GG13" t="inlineStr">
@@ -12334,12 +12306,12 @@
           <t>false</t>
         </is>
       </c>
-      <c r="GK13" t="inlineStr"/>
-      <c r="GL13" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="GK13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="GL13" t="inlineStr"/>
       <c r="GM13" t="inlineStr"/>
       <c r="GN13" t="inlineStr"/>
       <c r="GO13" t="inlineStr"/>
@@ -12425,7 +12397,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -12844,12 +12816,12 @@
       </c>
       <c r="CO14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CP14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ14" t="inlineStr">
@@ -12890,7 +12862,7 @@
       </c>
       <c r="DC14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DD14" t="inlineStr">
@@ -12910,22 +12882,22 @@
       </c>
       <c r="DG14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DH14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DI14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DJ14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DK14" t="inlineStr">
@@ -12955,17 +12927,17 @@
       </c>
       <c r="DP14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DQ14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DR14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DS14" t="inlineStr">
@@ -12975,17 +12947,17 @@
       </c>
       <c r="DT14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DU14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DV14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DW14" t="inlineStr">
@@ -13016,12 +12988,12 @@
       </c>
       <c r="EG14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EH14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EI14" t="inlineStr">
@@ -13036,7 +13008,7 @@
       </c>
       <c r="EK14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EL14" t="inlineStr">
@@ -13051,12 +13023,12 @@
       </c>
       <c r="EN14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EO14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EP14" t="inlineStr">
@@ -13066,7 +13038,7 @@
       </c>
       <c r="EQ14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="ER14" t="inlineStr"/>
@@ -13086,18 +13058,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="EW14" t="inlineStr"/>
+      <c r="EW14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="EX14" t="inlineStr"/>
       <c r="EY14" t="inlineStr"/>
       <c r="EZ14" t="inlineStr"/>
-      <c r="FA14" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="FA14" t="inlineStr"/>
       <c r="FB14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FC14" t="inlineStr">
@@ -13106,21 +13078,21 @@
         </is>
       </c>
       <c r="FD14" t="inlineStr"/>
-      <c r="FE14" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FF14" t="inlineStr"/>
+      <c r="FE14" t="inlineStr"/>
+      <c r="FF14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FG14" t="inlineStr"/>
       <c r="FH14" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ14" t="inlineStr">
@@ -13180,12 +13152,12 @@
       </c>
       <c r="FU14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FV14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FW14" t="inlineStr">
@@ -13308,12 +13280,12 @@
       </c>
       <c r="HA14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HB14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HC14" t="inlineStr">
@@ -13333,7 +13305,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -14015,15 +13987,15 @@
       </c>
       <c r="FD15" t="inlineStr"/>
       <c r="FE15" t="inlineStr"/>
-      <c r="FF15" t="inlineStr"/>
-      <c r="FG15" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="FG15" t="inlineStr"/>
       <c r="FH15" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C363</t>
         </is>
       </c>
       <c r="FI15" t="inlineStr">
@@ -14033,7 +14005,7 @@
       </c>
       <c r="FJ15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK15" t="inlineStr">
@@ -14186,7 +14158,7 @@
       </c>
       <c r="GU15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV15" t="inlineStr">
@@ -14201,7 +14173,7 @@
       </c>
       <c r="GX15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GY15" t="inlineStr">
@@ -14241,7 +14213,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -14936,14 +14908,10 @@
       <c r="FD16" t="inlineStr"/>
       <c r="FE16" t="inlineStr"/>
       <c r="FF16" t="inlineStr"/>
-      <c r="FG16" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG16" t="inlineStr"/>
       <c r="FH16" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI16" t="inlineStr">
@@ -15161,7 +15129,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -15849,27 +15817,27 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FD17" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FE17" t="inlineStr"/>
+      <c r="FD17" t="inlineStr"/>
+      <c r="FE17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FF17" t="inlineStr"/>
       <c r="FG17" t="inlineStr"/>
       <c r="FH17" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ17" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FK17" t="inlineStr">
@@ -16007,7 +15975,7 @@
       </c>
       <c r="GR17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS17" t="inlineStr">
@@ -16022,22 +15990,22 @@
       </c>
       <c r="GU17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GW17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GX17" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GY17" t="inlineStr">
@@ -16077,7 +16045,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -16771,20 +16739,16 @@
       </c>
       <c r="FD18" t="inlineStr"/>
       <c r="FE18" t="inlineStr"/>
-      <c r="FF18" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF18" t="inlineStr"/>
       <c r="FG18" t="inlineStr"/>
       <c r="FH18" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI18" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ18" t="inlineStr">
@@ -16997,7 +16961,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -17154,7 +17118,7 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -17189,7 +17153,7 @@
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
@@ -17677,27 +17641,23 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD19" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD19" t="inlineStr"/>
       <c r="FE19" t="inlineStr"/>
       <c r="FF19" t="inlineStr"/>
       <c r="FG19" t="inlineStr"/>
       <c r="FH19" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ19" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FK19" t="inlineStr">
@@ -17811,7 +17771,7 @@
       <c r="GQ19" t="inlineStr"/>
       <c r="GR19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS19" t="inlineStr">
@@ -17881,7 +17841,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -18565,17 +18525,13 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD20" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD20" t="inlineStr"/>
       <c r="FE20" t="inlineStr"/>
       <c r="FF20" t="inlineStr"/>
       <c r="FG20" t="inlineStr"/>
       <c r="FH20" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI20" t="inlineStr">
@@ -18585,7 +18541,7 @@
       </c>
       <c r="FJ20" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK20" t="inlineStr">
@@ -18793,7 +18749,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -19475,20 +19431,16 @@
       </c>
       <c r="FD21" t="inlineStr"/>
       <c r="FE21" t="inlineStr"/>
-      <c r="FF21" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF21" t="inlineStr"/>
       <c r="FG21" t="inlineStr"/>
       <c r="FH21" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI21" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ21" t="inlineStr">
@@ -19701,7 +19653,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -20392,14 +20344,10 @@
       <c r="FD22" t="inlineStr"/>
       <c r="FE22" t="inlineStr"/>
       <c r="FF22" t="inlineStr"/>
-      <c r="FG22" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG22" t="inlineStr"/>
       <c r="FH22" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI22" t="inlineStr">
@@ -20617,7 +20565,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -21297,17 +21245,17 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD23" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FE23" t="inlineStr"/>
+      <c r="FD23" t="inlineStr"/>
+      <c r="FE23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FF23" t="inlineStr"/>
       <c r="FG23" t="inlineStr"/>
       <c r="FH23" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI23" t="inlineStr">
@@ -21470,7 +21418,7 @@
       </c>
       <c r="GU23" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV23" t="inlineStr">
@@ -21485,7 +21433,7 @@
       </c>
       <c r="GX23" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GY23" t="inlineStr">
@@ -21525,7 +21473,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -22207,15 +22155,11 @@
       </c>
       <c r="FD24" t="inlineStr"/>
       <c r="FE24" t="inlineStr"/>
-      <c r="FF24" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF24" t="inlineStr"/>
       <c r="FG24" t="inlineStr"/>
       <c r="FH24" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI24" t="inlineStr">
@@ -22225,7 +22169,7 @@
       </c>
       <c r="FJ24" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK24" t="inlineStr">
@@ -22433,7 +22377,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -23113,22 +23057,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD25" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD25" t="inlineStr"/>
       <c r="FE25" t="inlineStr"/>
       <c r="FF25" t="inlineStr"/>
       <c r="FG25" t="inlineStr"/>
       <c r="FH25" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI25" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ25" t="inlineStr">
@@ -23341,7 +23281,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -23732,7 +23672,11 @@
       <c r="CB26" t="inlineStr"/>
       <c r="CC26" t="inlineStr"/>
       <c r="CD26" t="inlineStr"/>
-      <c r="CE26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CF26" t="inlineStr">
         <is>
           <t>true</t>
@@ -24021,22 +23965,22 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD26" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD26" t="inlineStr"/>
       <c r="FE26" t="inlineStr"/>
-      <c r="FF26" t="inlineStr"/>
+      <c r="FF26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FG26" t="inlineStr"/>
       <c r="FH26" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI26" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ26" t="inlineStr">
@@ -24249,7 +24193,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -24929,22 +24873,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD27" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD27" t="inlineStr"/>
       <c r="FE27" t="inlineStr"/>
       <c r="FF27" t="inlineStr"/>
       <c r="FG27" t="inlineStr"/>
       <c r="FH27" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI27" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ27" t="inlineStr">
@@ -25157,7 +25097,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -25847,12 +25787,12 @@
       <c r="FG28" t="inlineStr"/>
       <c r="FH28" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI28" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ28" t="inlineStr">
@@ -25995,7 +25935,7 @@
       </c>
       <c r="GR28" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS28" t="inlineStr">
@@ -26065,7 +26005,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -26297,7 +26237,7 @@
       </c>
       <c r="AT29" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AU29" t="inlineStr">
@@ -26456,11 +26396,7 @@
       <c r="CB29" t="inlineStr"/>
       <c r="CC29" t="inlineStr"/>
       <c r="CD29" t="inlineStr"/>
-      <c r="CE29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="CE29" t="inlineStr"/>
       <c r="CF29" t="inlineStr">
         <is>
           <t>true</t>
@@ -26507,12 +26443,12 @@
         </is>
       </c>
       <c r="CS29" t="inlineStr"/>
-      <c r="CT29" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CU29" t="inlineStr"/>
+      <c r="CT29" t="inlineStr"/>
+      <c r="CU29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CV29" t="inlineStr"/>
       <c r="CW29" t="inlineStr"/>
       <c r="CX29" t="inlineStr"/>
@@ -26524,7 +26460,7 @@
       <c r="CZ29" t="inlineStr"/>
       <c r="DA29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DB29" t="inlineStr">
@@ -26907,7 +26843,7 @@
       </c>
       <c r="GR29" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS29" t="inlineStr">
@@ -26977,7 +26913,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -27669,22 +27605,22 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FD30" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FE30" t="inlineStr"/>
+      <c r="FD30" t="inlineStr"/>
+      <c r="FE30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FF30" t="inlineStr"/>
       <c r="FG30" t="inlineStr"/>
       <c r="FH30" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI30" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ30" t="inlineStr">
@@ -27897,7 +27833,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -28577,22 +28513,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD31" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD31" t="inlineStr"/>
       <c r="FE31" t="inlineStr"/>
       <c r="FF31" t="inlineStr"/>
       <c r="FG31" t="inlineStr"/>
       <c r="FH31" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI31" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ31" t="inlineStr">
@@ -28805,7 +28737,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -29485,17 +29417,13 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD32" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD32" t="inlineStr"/>
       <c r="FE32" t="inlineStr"/>
       <c r="FF32" t="inlineStr"/>
       <c r="FG32" t="inlineStr"/>
       <c r="FH32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI32" t="inlineStr">
@@ -29713,7 +29641,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -30393,22 +30321,22 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD33" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FE33" t="inlineStr"/>
+      <c r="FD33" t="inlineStr"/>
+      <c r="FE33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FF33" t="inlineStr"/>
       <c r="FG33" t="inlineStr"/>
       <c r="FH33" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI33" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ33" t="inlineStr">
@@ -30621,7 +30549,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -31323,7 +31251,7 @@
       </c>
       <c r="FH34" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI34" t="inlineStr">
@@ -31407,13 +31335,13 @@
         </is>
       </c>
       <c r="FY34" t="inlineStr"/>
-      <c r="FZ34" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FZ34" t="inlineStr"/>
       <c r="GA34" t="inlineStr"/>
-      <c r="GB34" t="inlineStr"/>
+      <c r="GB34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GC34" t="inlineStr">
         <is>
           <t>true</t>
@@ -31541,7 +31469,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -31578,7 +31506,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -31593,7 +31521,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -31628,7 +31556,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -31643,7 +31571,7 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -31683,7 +31611,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -31698,7 +31626,7 @@
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
@@ -31728,7 +31656,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -31763,12 +31691,12 @@
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -31778,7 +31706,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AV35" t="inlineStr">
@@ -31828,12 +31756,12 @@
       </c>
       <c r="BE35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BF35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BG35" t="inlineStr">
@@ -31843,7 +31771,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BI35" t="inlineStr">
@@ -31908,12 +31836,12 @@
       </c>
       <c r="BU35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BV35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BW35" t="inlineStr">
@@ -31965,7 +31893,7 @@
       </c>
       <c r="CP35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ35" t="inlineStr">
@@ -31975,7 +31903,7 @@
       </c>
       <c r="CR35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CS35" t="inlineStr"/>
@@ -32006,7 +31934,7 @@
       </c>
       <c r="DC35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DD35" t="inlineStr">
@@ -32026,17 +31954,17 @@
       </c>
       <c r="DG35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DH35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DI35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DJ35" t="inlineStr">
@@ -32051,7 +31979,7 @@
       </c>
       <c r="DL35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DM35" t="inlineStr">
@@ -32061,7 +31989,7 @@
       </c>
       <c r="DN35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DO35" t="inlineStr">
@@ -32071,7 +31999,7 @@
       </c>
       <c r="DP35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DQ35" t="inlineStr">
@@ -32081,27 +32009,27 @@
       </c>
       <c r="DR35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DS35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DT35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DU35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DV35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DW35" t="inlineStr">
@@ -32123,21 +32051,21 @@
         </is>
       </c>
       <c r="EC35" t="inlineStr"/>
-      <c r="ED35" t="inlineStr"/>
+      <c r="ED35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="EE35" t="inlineStr"/>
-      <c r="EF35" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="EF35" t="inlineStr"/>
       <c r="EG35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EH35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EI35" t="inlineStr">
@@ -32186,15 +32114,15 @@
         </is>
       </c>
       <c r="ER35" t="inlineStr"/>
-      <c r="ES35" t="inlineStr"/>
-      <c r="ET35" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="ES35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="ET35" t="inlineStr"/>
       <c r="EU35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EV35" t="inlineStr">
@@ -32221,22 +32149,22 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD35" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FE35" t="inlineStr"/>
+      <c r="FD35" t="inlineStr"/>
+      <c r="FE35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FF35" t="inlineStr"/>
       <c r="FG35" t="inlineStr"/>
       <c r="FH35" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ35" t="inlineStr">
@@ -32296,7 +32224,7 @@
       </c>
       <c r="FU35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FV35" t="inlineStr">
@@ -32306,22 +32234,22 @@
       </c>
       <c r="FW35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FX35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FY35" t="inlineStr"/>
-      <c r="FZ35" t="inlineStr"/>
+      <c r="FZ35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GA35" t="inlineStr"/>
-      <c r="GB35" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="GB35" t="inlineStr"/>
       <c r="GC35" t="inlineStr">
         <is>
           <t>false</t>
@@ -32379,42 +32307,42 @@
       </c>
       <c r="GR35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GT35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GU35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GW35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GX35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GY35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GZ35" t="inlineStr">
@@ -32424,7 +32352,7 @@
       </c>
       <c r="HA35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HB35" t="inlineStr">
@@ -32449,7 +32377,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -33129,22 +33057,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD36" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD36" t="inlineStr"/>
       <c r="FE36" t="inlineStr"/>
       <c r="FF36" t="inlineStr"/>
       <c r="FG36" t="inlineStr"/>
       <c r="FH36" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI36" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ36" t="inlineStr">
@@ -33357,7 +33281,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -34040,19 +33964,15 @@
       <c r="FD37" t="inlineStr"/>
       <c r="FE37" t="inlineStr"/>
       <c r="FF37" t="inlineStr"/>
-      <c r="FG37" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG37" t="inlineStr"/>
       <c r="FH37" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI37" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ37" t="inlineStr">
@@ -34265,7 +34185,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -34948,14 +34868,10 @@
       <c r="FD38" t="inlineStr"/>
       <c r="FE38" t="inlineStr"/>
       <c r="FF38" t="inlineStr"/>
-      <c r="FG38" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG38" t="inlineStr"/>
       <c r="FH38" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI38" t="inlineStr">
@@ -35173,7 +35089,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -35856,14 +35772,10 @@
       <c r="FD39" t="inlineStr"/>
       <c r="FE39" t="inlineStr"/>
       <c r="FF39" t="inlineStr"/>
-      <c r="FG39" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG39" t="inlineStr"/>
       <c r="FH39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI39" t="inlineStr">
@@ -36081,7 +35993,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -36764,14 +36676,10 @@
       <c r="FD40" t="inlineStr"/>
       <c r="FE40" t="inlineStr"/>
       <c r="FF40" t="inlineStr"/>
-      <c r="FG40" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG40" t="inlineStr"/>
       <c r="FH40" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI40" t="inlineStr">
@@ -36989,7 +36897,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -37672,19 +37580,15 @@
       <c r="FD41" t="inlineStr"/>
       <c r="FE41" t="inlineStr"/>
       <c r="FF41" t="inlineStr"/>
-      <c r="FG41" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG41" t="inlineStr"/>
       <c r="FH41" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI41" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ41" t="inlineStr">
@@ -37897,7 +37801,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -38584,19 +38488,15 @@
       <c r="FD42" t="inlineStr"/>
       <c r="FE42" t="inlineStr"/>
       <c r="FF42" t="inlineStr"/>
-      <c r="FG42" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG42" t="inlineStr"/>
       <c r="FH42" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI42" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ42" t="inlineStr">
@@ -38809,7 +38709,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -39490,21 +39390,17 @@
         </is>
       </c>
       <c r="FD43" t="inlineStr"/>
-      <c r="FE43" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE43" t="inlineStr"/>
       <c r="FF43" t="inlineStr"/>
       <c r="FG43" t="inlineStr"/>
       <c r="FH43" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI43" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ43" t="inlineStr">
@@ -39717,7 +39613,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -40399,15 +40295,11 @@
       </c>
       <c r="FD44" t="inlineStr"/>
       <c r="FE44" t="inlineStr"/>
-      <c r="FF44" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF44" t="inlineStr"/>
       <c r="FG44" t="inlineStr"/>
       <c r="FH44" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI44" t="inlineStr">
@@ -40625,7 +40517,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -41309,22 +41201,18 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FD45" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD45" t="inlineStr"/>
       <c r="FE45" t="inlineStr"/>
       <c r="FF45" t="inlineStr"/>
       <c r="FG45" t="inlineStr"/>
       <c r="FH45" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI45" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ45" t="inlineStr">
@@ -41537,7 +41425,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -42228,14 +42116,10 @@
       <c r="FD46" t="inlineStr"/>
       <c r="FE46" t="inlineStr"/>
       <c r="FF46" t="inlineStr"/>
-      <c r="FG46" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG46" t="inlineStr"/>
       <c r="FH46" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI46" t="inlineStr">
@@ -42453,7 +42337,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -43136,14 +43020,10 @@
       <c r="FD47" t="inlineStr"/>
       <c r="FE47" t="inlineStr"/>
       <c r="FF47" t="inlineStr"/>
-      <c r="FG47" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG47" t="inlineStr"/>
       <c r="FH47" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI47" t="inlineStr">
@@ -43361,7 +43241,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -44042,16 +43922,12 @@
         </is>
       </c>
       <c r="FD48" t="inlineStr"/>
-      <c r="FE48" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE48" t="inlineStr"/>
       <c r="FF48" t="inlineStr"/>
       <c r="FG48" t="inlineStr"/>
       <c r="FH48" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI48" t="inlineStr">
@@ -44061,7 +43937,7 @@
       </c>
       <c r="FJ48" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK48" t="inlineStr">
@@ -44269,7 +44145,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -44952,14 +44828,10 @@
       <c r="FD49" t="inlineStr"/>
       <c r="FE49" t="inlineStr"/>
       <c r="FF49" t="inlineStr"/>
-      <c r="FG49" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG49" t="inlineStr"/>
       <c r="FH49" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI49" t="inlineStr">
@@ -45177,7 +45049,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -45860,14 +45732,10 @@
       <c r="FD50" t="inlineStr"/>
       <c r="FE50" t="inlineStr"/>
       <c r="FF50" t="inlineStr"/>
-      <c r="FG50" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG50" t="inlineStr"/>
       <c r="FH50" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI50" t="inlineStr">
@@ -45877,7 +45745,7 @@
       </c>
       <c r="FJ50" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK50" t="inlineStr">
@@ -46085,7 +45953,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -46766,16 +46634,12 @@
         </is>
       </c>
       <c r="FD51" t="inlineStr"/>
-      <c r="FE51" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE51" t="inlineStr"/>
       <c r="FF51" t="inlineStr"/>
       <c r="FG51" t="inlineStr"/>
       <c r="FH51" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI51" t="inlineStr">
@@ -46993,7 +46857,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -47682,21 +47546,17 @@
         </is>
       </c>
       <c r="FD52" t="inlineStr"/>
-      <c r="FE52" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE52" t="inlineStr"/>
       <c r="FF52" t="inlineStr"/>
       <c r="FG52" t="inlineStr"/>
       <c r="FH52" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI52" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ52" t="inlineStr">
@@ -47909,7 +47769,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -48081,7 +47941,7 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
@@ -48594,26 +48454,26 @@
         </is>
       </c>
       <c r="FD53" t="inlineStr"/>
-      <c r="FE53" t="inlineStr"/>
-      <c r="FF53" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="FF53" t="inlineStr"/>
       <c r="FG53" t="inlineStr"/>
       <c r="FH53" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C273</t>
         </is>
       </c>
       <c r="FI53" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ53" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FK53" t="inlineStr">
@@ -48686,12 +48546,12 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FY53" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FZ53" t="inlineStr"/>
+      <c r="FY53" t="inlineStr"/>
+      <c r="FZ53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GA53" t="inlineStr"/>
       <c r="GB53" t="inlineStr"/>
       <c r="GC53" t="inlineStr">
@@ -48756,7 +48616,7 @@
       </c>
       <c r="GS53" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GT53" t="inlineStr">
@@ -48776,7 +48636,7 @@
       </c>
       <c r="GW53" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GX53" t="inlineStr">
@@ -48821,7 +48681,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -49503,15 +49363,11 @@
       </c>
       <c r="FD54" t="inlineStr"/>
       <c r="FE54" t="inlineStr"/>
-      <c r="FF54" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF54" t="inlineStr"/>
       <c r="FG54" t="inlineStr"/>
       <c r="FH54" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI54" t="inlineStr">
@@ -49521,7 +49377,7 @@
       </c>
       <c r="FJ54" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK54" t="inlineStr">
@@ -49729,7 +49585,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -50244,7 +50100,7 @@
       </c>
       <c r="DM55" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DN55" t="inlineStr">
@@ -50419,7 +50275,7 @@
       </c>
       <c r="FH55" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI55" t="inlineStr">
@@ -50567,7 +50423,7 @@
       </c>
       <c r="GR55" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS55" t="inlineStr">
@@ -50637,7 +50493,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -51327,22 +51183,22 @@
       </c>
       <c r="FH56" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI56" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ56" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK56" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL56" t="inlineStr">
@@ -51411,13 +51267,13 @@
         </is>
       </c>
       <c r="FY56" t="inlineStr"/>
-      <c r="FZ56" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FZ56" t="inlineStr"/>
       <c r="GA56" t="inlineStr"/>
-      <c r="GB56" t="inlineStr"/>
+      <c r="GB56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
       <c r="GC56" t="inlineStr">
         <is>
           <t>true</t>
@@ -51545,7 +51401,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -52228,14 +52084,10 @@
       <c r="FD57" t="inlineStr"/>
       <c r="FE57" t="inlineStr"/>
       <c r="FF57" t="inlineStr"/>
-      <c r="FG57" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG57" t="inlineStr"/>
       <c r="FH57" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI57" t="inlineStr">
@@ -52245,7 +52097,7 @@
       </c>
       <c r="FJ57" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK57" t="inlineStr">
@@ -52453,7 +52305,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -53133,17 +52985,13 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FD58" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD58" t="inlineStr"/>
       <c r="FE58" t="inlineStr"/>
       <c r="FF58" t="inlineStr"/>
       <c r="FG58" t="inlineStr"/>
       <c r="FH58" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI58" t="inlineStr">
@@ -53361,7 +53209,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -53553,7 +53401,7 @@
       </c>
       <c r="AL59" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AM59" t="inlineStr">
@@ -53573,7 +53421,7 @@
       </c>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AQ59" t="inlineStr">
@@ -53593,7 +53441,7 @@
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AU59" t="inlineStr">
@@ -54041,17 +53889,17 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD59" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD59" t="inlineStr"/>
       <c r="FE59" t="inlineStr"/>
-      <c r="FF59" t="inlineStr"/>
+      <c r="FF59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FG59" t="inlineStr"/>
       <c r="FH59" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI59" t="inlineStr">
@@ -54061,7 +53909,7 @@
       </c>
       <c r="FJ59" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK59" t="inlineStr">
@@ -54134,12 +53982,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="FY59" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FZ59" t="inlineStr"/>
+      <c r="FY59" t="inlineStr"/>
+      <c r="FZ59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GA59" t="inlineStr"/>
       <c r="GB59" t="inlineStr"/>
       <c r="GC59" t="inlineStr">
@@ -54269,7 +54117,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -54949,22 +54797,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD60" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD60" t="inlineStr"/>
       <c r="FE60" t="inlineStr"/>
       <c r="FF60" t="inlineStr"/>
       <c r="FG60" t="inlineStr"/>
       <c r="FH60" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI60" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ60" t="inlineStr">
@@ -55177,7 +55021,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -55857,22 +55701,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD61" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD61" t="inlineStr"/>
       <c r="FE61" t="inlineStr"/>
       <c r="FF61" t="inlineStr"/>
       <c r="FG61" t="inlineStr"/>
       <c r="FH61" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI61" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ61" t="inlineStr">
@@ -56015,7 +55855,7 @@
       </c>
       <c r="GR61" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="GS61" t="inlineStr">
@@ -56035,7 +55875,7 @@
       </c>
       <c r="GV61" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="GW61" t="inlineStr">
@@ -56085,7 +55925,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -56767,15 +56607,11 @@
       </c>
       <c r="FD62" t="inlineStr"/>
       <c r="FE62" t="inlineStr"/>
-      <c r="FF62" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF62" t="inlineStr"/>
       <c r="FG62" t="inlineStr"/>
       <c r="FH62" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI62" t="inlineStr">
@@ -56993,7 +56829,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -57675,20 +57511,16 @@
       </c>
       <c r="FD63" t="inlineStr"/>
       <c r="FE63" t="inlineStr"/>
-      <c r="FF63" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF63" t="inlineStr"/>
       <c r="FG63" t="inlineStr"/>
       <c r="FH63" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI63" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ63" t="inlineStr">
@@ -57901,7 +57733,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -58582,21 +58414,17 @@
         </is>
       </c>
       <c r="FD64" t="inlineStr"/>
-      <c r="FE64" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE64" t="inlineStr"/>
       <c r="FF64" t="inlineStr"/>
       <c r="FG64" t="inlineStr"/>
       <c r="FH64" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI64" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ64" t="inlineStr">
@@ -58809,7 +58637,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -59492,24 +59320,20 @@
       <c r="FD65" t="inlineStr"/>
       <c r="FE65" t="inlineStr"/>
       <c r="FF65" t="inlineStr"/>
-      <c r="FG65" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG65" t="inlineStr"/>
       <c r="FH65" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI65" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ65" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FK65" t="inlineStr">
@@ -59717,7 +59541,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -59894,12 +59718,12 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AJ66" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AK66" t="inlineStr">
@@ -60397,17 +60221,13 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD66" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD66" t="inlineStr"/>
       <c r="FE66" t="inlineStr"/>
       <c r="FF66" t="inlineStr"/>
       <c r="FG66" t="inlineStr"/>
       <c r="FH66" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI66" t="inlineStr">
@@ -60542,12 +60362,12 @@
       <c r="GL66" t="inlineStr"/>
       <c r="GM66" t="inlineStr"/>
       <c r="GN66" t="inlineStr"/>
-      <c r="GO66" t="inlineStr"/>
-      <c r="GP66" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="GO66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="GP66" t="inlineStr"/>
       <c r="GQ66" t="inlineStr">
         <is>
           <t>true</t>
@@ -60625,7 +60445,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -60687,7 +60507,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -60817,7 +60637,7 @@
       </c>
       <c r="AL67" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AM67" t="inlineStr">
@@ -61007,14 +60827,18 @@
         </is>
       </c>
       <c r="BY67" t="inlineStr"/>
-      <c r="BZ67" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CA67" t="inlineStr"/>
+      <c r="BZ67" t="inlineStr"/>
+      <c r="CA67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CB67" t="inlineStr"/>
-      <c r="CC67" t="inlineStr"/>
+      <c r="CC67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CD67" t="inlineStr"/>
       <c r="CE67" t="inlineStr"/>
       <c r="CF67" t="inlineStr">
@@ -61030,12 +60854,12 @@
           <t>true</t>
         </is>
       </c>
-      <c r="CK67" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="CL67" t="inlineStr"/>
+      <c r="CK67" t="inlineStr"/>
+      <c r="CL67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="CM67" t="inlineStr"/>
       <c r="CN67" t="inlineStr">
         <is>
@@ -61231,7 +61055,7 @@
       </c>
       <c r="EJ67" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EK67" t="inlineStr">
@@ -61256,7 +61080,7 @@
       </c>
       <c r="EO67" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EP67" t="inlineStr">
@@ -61302,7 +61126,7 @@
       </c>
       <c r="FC67" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FD67" t="inlineStr"/>
@@ -61315,7 +61139,7 @@
       </c>
       <c r="FH67" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI67" t="inlineStr">
@@ -61330,7 +61154,7 @@
       </c>
       <c r="FK67" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL67" t="inlineStr">
@@ -61533,7 +61357,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -61620,7 +61444,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -61630,7 +61454,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
@@ -62216,14 +62040,10 @@
       <c r="FD68" t="inlineStr"/>
       <c r="FE68" t="inlineStr"/>
       <c r="FF68" t="inlineStr"/>
-      <c r="FG68" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG68" t="inlineStr"/>
       <c r="FH68" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI68" t="inlineStr">
@@ -62233,7 +62053,7 @@
       </c>
       <c r="FJ68" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK68" t="inlineStr">
@@ -62441,7 +62261,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -63122,21 +62942,17 @@
         </is>
       </c>
       <c r="FD69" t="inlineStr"/>
-      <c r="FE69" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE69" t="inlineStr"/>
       <c r="FF69" t="inlineStr"/>
       <c r="FG69" t="inlineStr"/>
       <c r="FH69" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI69" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ69" t="inlineStr">
@@ -63349,7 +63165,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -64029,17 +63845,13 @@
           <t>undefined</t>
         </is>
       </c>
-      <c r="FD70" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD70" t="inlineStr"/>
       <c r="FE70" t="inlineStr"/>
       <c r="FF70" t="inlineStr"/>
       <c r="FG70" t="inlineStr"/>
       <c r="FH70" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI70" t="inlineStr">
@@ -64257,7 +64069,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -64948,14 +64760,10 @@
       <c r="FD71" t="inlineStr"/>
       <c r="FE71" t="inlineStr"/>
       <c r="FF71" t="inlineStr"/>
-      <c r="FG71" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG71" t="inlineStr"/>
       <c r="FH71" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI71" t="inlineStr">
@@ -64965,7 +64773,7 @@
       </c>
       <c r="FJ71" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK71" t="inlineStr">
@@ -65173,7 +64981,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -65853,17 +65661,13 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD72" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD72" t="inlineStr"/>
       <c r="FE72" t="inlineStr"/>
       <c r="FF72" t="inlineStr"/>
       <c r="FG72" t="inlineStr"/>
       <c r="FH72" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI72" t="inlineStr">
@@ -66081,7 +65885,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -66762,21 +66566,17 @@
         </is>
       </c>
       <c r="FD73" t="inlineStr"/>
-      <c r="FE73" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE73" t="inlineStr"/>
       <c r="FF73" t="inlineStr"/>
       <c r="FG73" t="inlineStr"/>
       <c r="FH73" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI73" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ73" t="inlineStr">
@@ -66989,7 +66789,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -67684,14 +67484,10 @@
       <c r="FD74" t="inlineStr"/>
       <c r="FE74" t="inlineStr"/>
       <c r="FF74" t="inlineStr"/>
-      <c r="FG74" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG74" t="inlineStr"/>
       <c r="FH74" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI74" t="inlineStr">
@@ -67909,7 +67705,7 @@
       </c>
       <c r="HF74" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -68591,15 +68387,11 @@
       </c>
       <c r="FD75" t="inlineStr"/>
       <c r="FE75" t="inlineStr"/>
-      <c r="FF75" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF75" t="inlineStr"/>
       <c r="FG75" t="inlineStr"/>
       <c r="FH75" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI75" t="inlineStr">
@@ -68609,7 +68401,7 @@
       </c>
       <c r="FJ75" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK75" t="inlineStr">
@@ -68817,7 +68609,7 @@
       </c>
       <c r="HF75" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -68964,7 +68756,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AD76" t="inlineStr">
@@ -68974,7 +68766,7 @@
       </c>
       <c r="AE76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AF76" t="inlineStr">
@@ -68999,7 +68791,7 @@
       </c>
       <c r="AJ76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AK76" t="inlineStr">
@@ -69044,7 +68836,7 @@
       </c>
       <c r="AS76" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr">
@@ -69240,12 +69032,12 @@
       </c>
       <c r="CO76" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CP76" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ76" t="inlineStr">
@@ -69331,12 +69123,12 @@
       </c>
       <c r="DL76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DM76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DN76" t="inlineStr">
@@ -69366,12 +69158,12 @@
       </c>
       <c r="DS76" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DT76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DU76" t="inlineStr">
@@ -69417,17 +69209,17 @@
       </c>
       <c r="EH76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="EI76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="EJ76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="EK76" t="inlineStr">
@@ -69479,7 +69271,7 @@
       </c>
       <c r="EV76" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EW76" t="inlineStr"/>
@@ -69502,16 +69294,16 @@
         </is>
       </c>
       <c r="FD76" t="inlineStr"/>
-      <c r="FE76" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FF76" t="inlineStr"/>
+      <c r="FE76" t="inlineStr"/>
+      <c r="FF76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FG76" t="inlineStr"/>
       <c r="FH76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C363</t>
         </is>
       </c>
       <c r="FI76" t="inlineStr">
@@ -69624,12 +69416,12 @@
       </c>
       <c r="GG76" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="GH76" t="inlineStr">
         <is>
-          <t>undefined</t>
+          <t>false</t>
         </is>
       </c>
       <c r="GI76" t="inlineStr">
@@ -69729,7 +69521,7 @@
       </c>
       <c r="HF76" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -70409,22 +70201,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD77" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD77" t="inlineStr"/>
       <c r="FE77" t="inlineStr"/>
       <c r="FF77" t="inlineStr"/>
       <c r="FG77" t="inlineStr"/>
       <c r="FH77" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI77" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ77" t="inlineStr">
@@ -70637,7 +70425,7 @@
       </c>
       <c r="HF77" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -71321,22 +71109,18 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD78" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD78" t="inlineStr"/>
       <c r="FE78" t="inlineStr"/>
       <c r="FF78" t="inlineStr"/>
       <c r="FG78" t="inlineStr"/>
       <c r="FH78" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI78" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ78" t="inlineStr">
@@ -71549,7 +71333,7 @@
       </c>
       <c r="HF78" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -71651,7 +71435,7 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -71746,7 +71530,7 @@
       </c>
       <c r="AM79" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AN79" t="inlineStr">
@@ -72239,15 +72023,11 @@
       </c>
       <c r="FD79" t="inlineStr"/>
       <c r="FE79" t="inlineStr"/>
-      <c r="FF79" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF79" t="inlineStr"/>
       <c r="FG79" t="inlineStr"/>
       <c r="FH79" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI79" t="inlineStr">
@@ -72465,7 +72245,7 @@
       </c>
       <c r="HF79" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -72622,7 +72402,7 @@
       </c>
       <c r="AE80" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AF80" t="inlineStr">
@@ -72677,7 +72457,7 @@
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AQ80" t="inlineStr">
@@ -72687,7 +72467,7 @@
       </c>
       <c r="AR80" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AS80" t="inlineStr">
@@ -72797,7 +72577,7 @@
       </c>
       <c r="BN80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BO80" t="inlineStr">
@@ -72812,7 +72592,7 @@
       </c>
       <c r="BQ80" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BR80" t="inlineStr">
@@ -72889,7 +72669,7 @@
       </c>
       <c r="CP80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ80" t="inlineStr">
@@ -73145,22 +72925,22 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD80" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FE80" t="inlineStr"/>
+      <c r="FD80" t="inlineStr"/>
+      <c r="FE80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FF80" t="inlineStr"/>
       <c r="FG80" t="inlineStr"/>
       <c r="FH80" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI80" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ80" t="inlineStr">
@@ -73373,7 +73153,7 @@
       </c>
       <c r="HF80" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -73874,7 +73654,7 @@
       </c>
       <c r="DK81" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DL81" t="inlineStr">
@@ -73947,17 +73727,17 @@
       <c r="EA81" t="inlineStr"/>
       <c r="EB81" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="EC81" t="inlineStr"/>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="EC81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="ED81" t="inlineStr"/>
       <c r="EE81" t="inlineStr"/>
-      <c r="EF81" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
+      <c r="EF81" t="inlineStr"/>
       <c r="EG81" t="inlineStr">
         <is>
           <t>true</t>
@@ -74013,21 +73793,21 @@
           <t>false</t>
         </is>
       </c>
-      <c r="ER81" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="ES81" t="inlineStr"/>
+      <c r="ER81" t="inlineStr"/>
+      <c r="ES81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="ET81" t="inlineStr"/>
       <c r="EU81" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EV81" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EW81" t="inlineStr"/>
@@ -74051,20 +73831,20 @@
       </c>
       <c r="FD81" t="inlineStr"/>
       <c r="FE81" t="inlineStr"/>
-      <c r="FF81" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="FG81" t="inlineStr"/>
+      <c r="FF81" t="inlineStr"/>
+      <c r="FG81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="FH81" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI81" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ81" t="inlineStr">
@@ -74099,7 +73879,7 @@
       </c>
       <c r="FP81" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FQ81" t="inlineStr">
@@ -74143,12 +73923,12 @@
         </is>
       </c>
       <c r="FY81" t="inlineStr"/>
-      <c r="FZ81" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="GA81" t="inlineStr"/>
+      <c r="FZ81" t="inlineStr"/>
+      <c r="GA81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="GB81" t="inlineStr"/>
       <c r="GC81" t="inlineStr">
         <is>
@@ -74277,7 +74057,7 @@
       </c>
       <c r="HF81" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -74960,14 +74740,10 @@
       <c r="FD82" t="inlineStr"/>
       <c r="FE82" t="inlineStr"/>
       <c r="FF82" t="inlineStr"/>
-      <c r="FG82" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG82" t="inlineStr"/>
       <c r="FH82" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI82" t="inlineStr">
@@ -75185,7 +74961,7 @@
       </c>
       <c r="HF82" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -75217,7 +74993,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -75227,7 +75003,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -75362,12 +75138,12 @@
       </c>
       <c r="AI83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AJ83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AK83" t="inlineStr">
@@ -75377,7 +75153,7 @@
       </c>
       <c r="AL83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AM83" t="inlineStr">
@@ -75517,12 +75293,12 @@
       </c>
       <c r="BN83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BO83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BP83" t="inlineStr">
@@ -75875,15 +75651,11 @@
       </c>
       <c r="FD83" t="inlineStr"/>
       <c r="FE83" t="inlineStr"/>
-      <c r="FF83" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF83" t="inlineStr"/>
       <c r="FG83" t="inlineStr"/>
       <c r="FH83" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI83" t="inlineStr">
@@ -76101,7 +75873,7 @@
       </c>
       <c r="HF83" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -76782,21 +76554,17 @@
         </is>
       </c>
       <c r="FD84" t="inlineStr"/>
-      <c r="FE84" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FE84" t="inlineStr"/>
       <c r="FF84" t="inlineStr"/>
       <c r="FG84" t="inlineStr"/>
       <c r="FH84" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI84" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="FJ84" t="inlineStr">
@@ -77009,7 +76777,7 @@
       </c>
       <c r="HF84" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -77231,7 +76999,7 @@
       </c>
       <c r="AR85" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
@@ -77336,7 +77104,7 @@
       </c>
       <c r="BM85" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BN85" t="inlineStr">
@@ -77361,7 +77129,7 @@
       </c>
       <c r="BR85" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="BS85" t="inlineStr">
@@ -77479,7 +77247,7 @@
       </c>
       <c r="DD85" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="DE85" t="inlineStr">
@@ -77529,7 +77297,7 @@
       </c>
       <c r="DN85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DO85" t="inlineStr">
@@ -77610,7 +77378,7 @@
       </c>
       <c r="EI85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EJ85" t="inlineStr">
@@ -77620,7 +77388,7 @@
       </c>
       <c r="EK85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EL85" t="inlineStr">
@@ -77635,7 +77403,7 @@
       </c>
       <c r="EN85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="EO85" t="inlineStr">
@@ -77653,12 +77421,12 @@
           <t>false</t>
         </is>
       </c>
-      <c r="ER85" t="inlineStr"/>
-      <c r="ES85" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="ER85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="ES85" t="inlineStr"/>
       <c r="ET85" t="inlineStr"/>
       <c r="EU85" t="inlineStr">
         <is>
@@ -77689,17 +77457,13 @@
           <t>false</t>
         </is>
       </c>
-      <c r="FD85" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FD85" t="inlineStr"/>
       <c r="FE85" t="inlineStr"/>
       <c r="FF85" t="inlineStr"/>
       <c r="FG85" t="inlineStr"/>
       <c r="FH85" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI85" t="inlineStr">
@@ -77783,12 +77547,12 @@
         </is>
       </c>
       <c r="FY85" t="inlineStr"/>
-      <c r="FZ85" t="inlineStr"/>
-      <c r="GA85" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FZ85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="GA85" t="inlineStr"/>
       <c r="GB85" t="inlineStr"/>
       <c r="GC85" t="inlineStr">
         <is>
@@ -77917,7 +77681,7 @@
       </c>
       <c r="HF85" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -77964,17 +77728,17 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -77989,7 +77753,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -78109,7 +77873,7 @@
       </c>
       <c r="AL86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AM86" t="inlineStr">
@@ -78124,7 +77888,7 @@
       </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AP86" t="inlineStr">
@@ -78179,7 +77943,7 @@
       </c>
       <c r="AZ86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BA86" t="inlineStr">
@@ -78209,7 +77973,7 @@
       </c>
       <c r="BF86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BG86" t="inlineStr">
@@ -78219,7 +77983,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BI86" t="inlineStr">
@@ -78607,15 +78371,11 @@
       </c>
       <c r="FD86" t="inlineStr"/>
       <c r="FE86" t="inlineStr"/>
-      <c r="FF86" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FF86" t="inlineStr"/>
       <c r="FG86" t="inlineStr"/>
       <c r="FH86" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI86" t="inlineStr">
@@ -78625,7 +78385,7 @@
       </c>
       <c r="FJ86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK86" t="inlineStr">
@@ -78763,7 +78523,7 @@
       </c>
       <c r="GR86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS86" t="inlineStr">
@@ -78823,7 +78583,7 @@
       </c>
       <c r="HD86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HE86" t="inlineStr">
@@ -78833,7 +78593,7 @@
       </c>
       <c r="HF86" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -78960,7 +78720,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -78990,7 +78750,7 @@
       </c>
       <c r="AE87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="AF87" t="inlineStr">
@@ -79090,42 +78850,42 @@
       </c>
       <c r="AY87" t="inlineStr">
         <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AZ87" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BA87" t="inlineStr">
+        <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="AZ87" t="inlineStr">
+      <c r="BB87" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BA87" t="inlineStr">
+      <c r="BC87" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BB87" t="inlineStr">
+      <c r="BD87" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BC87" t="inlineStr">
+      <c r="BE87" t="inlineStr">
         <is>
           <t>undefined</t>
         </is>
       </c>
-      <c r="BD87" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
-      <c r="BE87" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
       <c r="BF87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="BG87" t="inlineStr">
@@ -79247,7 +79007,7 @@
       </c>
       <c r="CN87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CO87" t="inlineStr">
@@ -79257,7 +79017,7 @@
       </c>
       <c r="CP87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="CQ87" t="inlineStr">
@@ -79293,7 +79053,7 @@
       </c>
       <c r="DB87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DC87" t="inlineStr">
@@ -79303,7 +79063,7 @@
       </c>
       <c r="DD87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DE87" t="inlineStr">
@@ -79313,7 +79073,7 @@
       </c>
       <c r="DF87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DG87" t="inlineStr">
@@ -79363,12 +79123,12 @@
       </c>
       <c r="DP87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DQ87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="DR87" t="inlineStr">
@@ -79523,7 +79283,7 @@
       </c>
       <c r="FH87" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C364</t>
         </is>
       </c>
       <c r="FI87" t="inlineStr">
@@ -79533,12 +79293,12 @@
       </c>
       <c r="FJ87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FK87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FL87" t="inlineStr">
@@ -79558,7 +79318,7 @@
       </c>
       <c r="FO87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FP87" t="inlineStr">
@@ -79616,7 +79376,7 @@
       <c r="GB87" t="inlineStr"/>
       <c r="GC87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GD87" t="inlineStr">
@@ -79686,7 +79446,7 @@
       </c>
       <c r="GU87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV87" t="inlineStr">
@@ -79741,7 +79501,7 @@
       </c>
       <c r="HF87" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -80424,14 +80184,10 @@
       <c r="FD88" t="inlineStr"/>
       <c r="FE88" t="inlineStr"/>
       <c r="FF88" t="inlineStr"/>
-      <c r="FG88" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
+      <c r="FG88" t="inlineStr"/>
       <c r="FH88" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>undefined</t>
         </is>
       </c>
       <c r="FI88" t="inlineStr">
@@ -80649,7 +80405,7 @@
       </c>
       <c r="HF88" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
@@ -81339,12 +81095,12 @@
       <c r="FG89" t="inlineStr"/>
       <c r="FH89" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>C272</t>
         </is>
       </c>
       <c r="FI89" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="FJ89" t="inlineStr">
@@ -81487,7 +81243,7 @@
       </c>
       <c r="GR89" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GS89" t="inlineStr">
@@ -81502,7 +81258,7 @@
       </c>
       <c r="GU89" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GV89" t="inlineStr">
@@ -81522,7 +81278,7 @@
       </c>
       <c r="GY89" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="GZ89" t="inlineStr">
@@ -81547,17 +81303,17 @@
       </c>
       <c r="HD89" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HE89" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="HF89" t="inlineStr">
         <is>
-          <t>2025-05-19 19:50:10</t>
+          <t>2025-05-24 10:50:10</t>
         </is>
       </c>
     </row>
